--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7880_Collect_in_Simple_and_Smart_Rules.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-7880_Collect_in_Simple_and_Smart_Rules.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13975C1-35FB-484A-8D07-74F77D4613DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14625"/>
+    <workbookView xWindow="525" yWindow="2235" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
   <si>
     <t>SmartRules Collect Double[] testSmartRules (Integer a, String b)</t>
   </si>
@@ -101,12 +107,18 @@
   </si>
   <si>
     <t>Test  testRules testRulesTest</t>
+  </si>
+  <si>
+    <t>SmartRules  Collect as Double and Double Map testSimpleRulesMap1 (Integer a, String b)</t>
+  </si>
+  <si>
+    <t>SimpleRules  Collect as Double and Double Map testSimpleRulesMap2 (Integer a, String b)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -162,7 +174,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -189,7 +201,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -198,14 +210,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,9 +258,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,9 +293,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,9 +345,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:O31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B6:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,8 +955,166 @@
         <v>4</v>
       </c>
     </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B37:E37"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="K14:O14"/>
     <mergeCell ref="B6:D6"/>
